--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F3D26-9E98-4AEB-A5D2-0D3DE17C2D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55293909-B829-4056-941C-2D230297642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Device</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Oak-D Lite Camera</t>
+  </si>
+  <si>
+    <t>Nom Power (W)</t>
+  </si>
+  <si>
+    <t>Max Power (W)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Frame</t>
   </si>
 </sst>
 </file>
@@ -130,10 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,32 +472,35 @@
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -495,68 +510,94 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="J7">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>4.5</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K2:K8)</f>
+        <v>136.6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55293909-B829-4056-941C-2D230297642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA051B9-207E-4A52-97D1-85CAF68C9A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -35,8 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EDFC1F6D-C710-48DD-80D3-EF0F68657693}</author>
+    <author>tc={CA7717A0-5AE8-4F5B-A4DE-254C224B326D}</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I got this from the forum post about connecting it to a battery</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I got this from the forum post about connecting it to a battery</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Device</t>
   </si>
@@ -102,19 +129,28 @@
   </si>
   <si>
     <t>Frame</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,6 +197,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike Thamm" id="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" userId="S::thamm@uwindsor.ca::43b75b9b-9190-408b-97ad-9d8c21402861" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,12 +500,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C7" dT="2023-08-27T15:42:34.77" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
+    <text>I got this from the forum post about connecting it to a battery</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2023-08-27T15:42:47.71" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
+    <text>I got this from the forum post about connecting it to a battery</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,6 +618,12 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="C7">
+        <v>2.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7">
         <v>0.6</v>
       </c>
@@ -601,5 +660,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA051B9-207E-4A52-97D1-85CAF68C9A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526582B-7495-4D9B-A9E6-914A7B6A063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Device</t>
   </si>
@@ -132,25 +132,25 @@
   </si>
   <si>
     <t>5V</t>
+  </si>
+  <si>
+    <t>2.7 (idle)</t>
+  </si>
+  <si>
+    <t>0.54 (idle)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,14 +516,14 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
@@ -574,6 +574,21 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1.28</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>6.4</v>
+      </c>
       <c r="K3">
         <v>46</v>
       </c>

--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526582B-7495-4D9B-A9E6-914A7B6A063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E2BAF-83B4-4204-831C-3C0EEE749FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={CA7717A0-5AE8-4F5B-A4DE-254C224B326D}</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +50,7 @@
     I got this from the forum post about connecting it to a battery</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
+    <comment ref="D9" authorId="1" shapeId="0" xr:uid="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Device</t>
   </si>
@@ -92,27 +92,9 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Voltage (V)</t>
   </si>
   <si>
-    <t>3S-6S LiPo (11.1-22.2 V)</t>
-  </si>
-  <si>
-    <t>1A@4.5V</t>
-  </si>
-  <si>
-    <t>0.5A@3.3V</t>
-  </si>
-  <si>
-    <t>2A@4.5V</t>
-  </si>
-  <si>
-    <t>2A@9V</t>
-  </si>
-  <si>
     <t>Mass (g)</t>
   </si>
   <si>
@@ -138,16 +120,66 @@
   </si>
   <si>
     <t>0.54 (idle)</t>
+  </si>
+  <si>
+    <t>3-6S lipo (11.1-22.2 V)</t>
+  </si>
+  <si>
+    <t>Recommend ESC: 45A</t>
+  </si>
+  <si>
+    <t>Thrust (4x4.5 prop)</t>
+  </si>
+  <si>
+    <t>racerstar-br2207s-fire-edition-2200kv</t>
+  </si>
+  <si>
+    <t>1060g@18.5V</t>
+  </si>
+  <si>
+    <t>28.3@18.5V</t>
+  </si>
+  <si>
+    <t>Number of motors</t>
+  </si>
+  <si>
+    <t>524@18.5V x 1 motor</t>
+  </si>
+  <si>
+    <t>Discharge rate (C)</t>
+  </si>
+  <si>
+    <t>Battery capacity (Ah)</t>
+  </si>
+  <si>
+    <t>Min usage time (min)</t>
+  </si>
+  <si>
+    <t>Velocity (ft/min)</t>
+  </si>
+  <si>
+    <t>Thrust (lbf)</t>
+  </si>
+  <si>
+    <t>HP (x4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,20 +202,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +539,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C7" dT="2023-08-27T15:42:34.77" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
+  <threadedComment ref="C9" dT="2023-08-27T15:42:34.77" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{EDFC1F6D-C710-48DD-80D3-EF0F68657693}">
     <text>I got this from the forum post about connecting it to a battery</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2023-08-27T15:42:47.71" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
+  <threadedComment ref="D9" dT="2023-08-27T15:42:47.71" personId="{2FBDC50D-459E-4615-92F0-93A11F40B4D0}" id="{CA7717A0-5AE8-4F5B-A4DE-254C224B326D}">
     <text>I got this from the forum post about connecting it to a battery</text>
   </threadedComment>
 </ThreadedComments>
@@ -513,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,154 +564,276 @@
     <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.36328125" customWidth="1"/>
     <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1.28</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>6.4</v>
+      </c>
+      <c r="G5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>33.15</v>
+      </c>
+      <c r="G6">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f>28.3*(22.2/18.5)</f>
+        <v>33.96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <f>B1*524*(22.2/18.5)</f>
+        <v>2515.1999999999998</v>
+      </c>
+      <c r="G7">
+        <f>35*4</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2.1</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f>C5+B1*C7+SUM(C8:C11)</f>
+        <v>139.22</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F5:F11)</f>
+        <v>2559.25</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G4:G10)</f>
+        <v>276.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <f>2*B1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="e">
+        <f>B15*33000/B17</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1.28</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>6.4</v>
-      </c>
-      <c r="K3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>2.1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>4.5</v>
-      </c>
-      <c r="K7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K2:K8)</f>
-        <v>136.6</v>
+      <c r="B21">
+        <f>B20*B19</f>
+        <v>270</v>
+      </c>
+      <c r="C21">
+        <f>C20*C19</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>22.2</v>
+      </c>
+      <c r="C22">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <f>60/B20</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C23">
+        <f>60/C20</f>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{F12C4620-1FC5-4F50-BA0A-EEE5AE879D82}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{C9A2EBA6-23C0-428D-8951-FCFCA35329D8}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{0DA00957-246C-4D00-8BAE-FE0922C4D2DF}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{D724DC78-B0CF-401A-847F-A0F139CD9F85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E2BAF-83B4-4204-831C-3C0EEE749FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93A5B2-A0B5-40DC-A868-266CE38AD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
+    <workbookView xWindow="3370" yWindow="230" windowWidth="14400" windowHeight="7360" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,10 +211,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,13 +578,13 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C7">
@@ -660,7 +660,7 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7">
@@ -731,7 +731,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -757,12 +757,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -772,8 +772,11 @@
       <c r="C19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="C20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -796,8 +802,12 @@
         <f>C20*C19</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>D20*D19</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -807,8 +817,11 @@
       <c r="C22">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -819,6 +832,10 @@
       <c r="C23">
         <f>60/C20</f>
         <v>2.4</v>
+      </c>
+      <c r="D23">
+        <f>60/D20</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F93A5B2-A0B5-40DC-A868-266CE38AD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B5153-E2CE-4598-9FD4-A515974B4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3370" yWindow="230" windowWidth="14400" windowHeight="7360" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
       </c>
       <c r="D21">
         <f>D20*D19</f>
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -835,7 +835,7 @@
       </c>
       <c r="D23">
         <f>60/D20</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/power-considerations.xlsx
+++ b/power-considerations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Coding\drone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235B5153-E2CE-4598-9FD4-A515974B4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698C7898-8020-4072-AAE2-F07B399D174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3370" yWindow="230" windowWidth="14400" windowHeight="7360" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{24E3C411-F013-4E9A-A97D-CB1C2E6B6AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Device</t>
   </si>
@@ -113,18 +113,12 @@
     <t>Frame</t>
   </si>
   <si>
-    <t>5V</t>
-  </si>
-  <si>
     <t>2.7 (idle)</t>
   </si>
   <si>
     <t>0.54 (idle)</t>
   </si>
   <si>
-    <t>3-6S lipo (11.1-22.2 V)</t>
-  </si>
-  <si>
     <t>Recommend ESC: 45A</t>
   </si>
   <si>
@@ -162,6 +156,9 @@
   </si>
   <si>
     <t>HP (x4)</t>
+  </si>
+  <si>
+    <t>11.1-22.2</t>
   </si>
 </sst>
 </file>
@@ -552,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE627F9-A14D-47F1-B5B5-2088EF7C2698}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +565,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -611,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1.28</v>
@@ -620,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>6.4</v>
@@ -634,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>33.15</v>
@@ -651,24 +648,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <f>28.3*(22.2/18.5)</f>
         <v>33.96</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f>B1*524*(22.2/18.5)</f>
         <v>2515.1999999999998</v>
       </c>
       <c r="G7">
-        <f>35*4</f>
+        <f>B1*35</f>
         <v>140</v>
       </c>
     </row>
@@ -687,8 +684,8 @@
       <c r="C9">
         <v>2.1</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
+      <c r="D9">
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0.6</v>
@@ -729,19 +726,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <f>2*B1</f>
@@ -750,7 +747,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="e">
         <f>B15*33000/B17</f>
@@ -759,12 +756,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -778,7 +775,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>45</v>
@@ -823,7 +820,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <f>60/B20</f>
